--- a/data/trans_dic/P23_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P23_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>39,69; 47,05</t>
+          <t>39,63; 47,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,4; 41,06</t>
+          <t>33,24; 40,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,34; 40,79</t>
+          <t>33,45; 40,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,39; 32,1</t>
+          <t>24,6; 32,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,26; 26,44</t>
+          <t>19,88; 26,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,76; 26,59</t>
+          <t>19,81; 26,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,76; 28,48</t>
+          <t>21,85; 28,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,63; 20,71</t>
+          <t>15,65; 20,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,76; 35,86</t>
+          <t>30,88; 35,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,51; 32,54</t>
+          <t>27,68; 32,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,4; 33,65</t>
+          <t>28,5; 33,89</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,84; 25,49</t>
+          <t>20,69; 25,26</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,69; 42,99</t>
+          <t>37,0; 43,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,39; 40,68</t>
+          <t>33,96; 40,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,87; 35,68</t>
+          <t>30,07; 35,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,53; 26,43</t>
+          <t>10,52; 26,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,04; 25,43</t>
+          <t>20,04; 25,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,12; 31,32</t>
+          <t>25,2; 30,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,22; 28,8</t>
+          <t>23,33; 29,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,68; 21,46</t>
+          <t>16,55; 21,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,39; 33,71</t>
+          <t>29,57; 33,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,58; 34,96</t>
+          <t>30,41; 34,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,36; 31,32</t>
+          <t>27,24; 31,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,39; 22,58</t>
+          <t>13,72; 22,63</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,35; 40,33</t>
+          <t>32,61; 39,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,54; 40,69</t>
+          <t>33,33; 41,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,21; 44,76</t>
+          <t>37,23; 44,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,75; 33,02</t>
+          <t>24,65; 33,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,91; 27,42</t>
+          <t>20,62; 27,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,07; 32,14</t>
+          <t>25,55; 32,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,48; 31,91</t>
+          <t>25,25; 32,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,04; 22,67</t>
+          <t>9,17; 22,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,43; 32,54</t>
+          <t>27,46; 32,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30,34; 35,45</t>
+          <t>30,17; 35,3</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,18; 37,18</t>
+          <t>32,15; 36,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,15; 25,81</t>
+          <t>14,4; 25,67</t>
         </is>
       </c>
     </row>
@@ -1144,52 +1145,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,25; 42,71</t>
+          <t>36,74; 43,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>32,79; 39,11</t>
+          <t>32,79; 39,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,12; 33,18</t>
+          <t>26,95; 32,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,56; 26,69</t>
+          <t>20,5; 26,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,56; 30,14</t>
+          <t>24,69; 30,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,52; 30,13</t>
+          <t>24,76; 30,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,09; 27,29</t>
+          <t>22,16; 27,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,04; 20,15</t>
+          <t>14,17; 20,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,14; 35,4</t>
+          <t>31,04; 35,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,25; 33,45</t>
+          <t>29,35; 33,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,86; 22,34</t>
+          <t>17,88; 22,36</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>38,16; 41,56</t>
+          <t>38,0; 41,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,25; 38,67</t>
+          <t>35,21; 38,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,22; 36,49</t>
+          <t>32,99; 36,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,98; 26,68</t>
+          <t>19,25; 26,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,14; 26,14</t>
+          <t>23,23; 26,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,35; 28,52</t>
+          <t>25,37; 28,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,58; 27,76</t>
+          <t>24,6; 27,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,52; 19,6</t>
+          <t>14,36; 19,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,98; 33,19</t>
+          <t>30,89; 33,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,66; 33,0</t>
+          <t>30,6; 32,99</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29,14; 31,42</t>
+          <t>29,07; 31,37</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,86; 22,46</t>
+          <t>18,1; 22,57</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>301107</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>260556</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>250552</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>178017</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>159090</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>160835</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>168409</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>122523</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>460197</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>421391</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>418961</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>300540</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>275047; 327757</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>233863; 285479</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>225737; 273338</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>156092; 204343</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>136854; 181816</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>138054; 184324</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>146785; 191230</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>105781; 141166</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>426836; 494661</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>387643; 460146</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>383813; 456358</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>271121; 330912</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>385374</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>380459</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>334788</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>238002</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>222116</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>288327</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>270928</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>180117</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>607489</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>668787</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>605716</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>418118</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>355472; 416893</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>345319; 411719</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>307130; 366063</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>125353; 310683</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>194065; 247876</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>260104; 319449</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>243123; 302717</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>158536; 203394</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>570411; 654488</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>623222; 712663</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>562031; 647181</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>294979; 486500</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>245272</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>281665</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>309010</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>200999</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>163059</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>221086</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>225257</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>156113</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>408331</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>502751</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>534267</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>357112</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>221242; 271059</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>252541; 310962</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>282430; 338898</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>173654; 234679</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>141004; 185290</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>198306; 251946</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>197697; 251590</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>85631; 209688</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>374130; 445127</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>462691; 541492</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>495680; 570007</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>235844; 420404</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>373508</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>339955</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>281788</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>217493</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>285539</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>288573</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>257384</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>193193</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>659047</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>628528</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>539172</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>410686</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>346130; 406158</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>310744; 370497</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>252683; 309222</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>190046; 247643</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>256471; 316218</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>260235; 319279</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>230990; 288153</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>154643; 219796</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>614911; 699192</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>586676; 670061</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>498984; 577710</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>360864; 451287</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1272</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1185</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1094</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>811</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2086</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2066</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1763</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1305261</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1262636</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1176137</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>834510</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>829803</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>958821</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>921979</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>651946</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2135065</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2221457</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2098116</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1486457</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1244842; 1361477</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1206177; 1328041</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1119083; 1234664</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>665502; 926490</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>785050; 885840</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>902400; 1013655</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>870508; 975209</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>525297; 713537</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2055957; 2216426</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2136501; 2303716</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2015020; 2174439</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1287875; 1605712</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P23_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P23_R2-Habitat-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1403,7 +1403,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
